--- a/QuantTrading.xlsx
+++ b/QuantTrading.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210608\Documents\GitHub\AutoTrade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congnv\Documents\GitHub\AutoTrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BB6FC6-CE2B-4786-ABC1-C7A2CE60CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FA5AC7-33D2-4000-AEB4-20F1DDB58AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F8B0288E-60FA-48FE-8258-8DAAD95258E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F8B0288E-60FA-48FE-8258-8DAAD95258E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>current</t>
   </si>
@@ -103,12 +104,18 @@
   </si>
   <si>
     <t>y = sign(mid_{t+H} - mid_t) với H = 3–10 ticks (hoặc 1–3 giây)</t>
+  </si>
+  <si>
+    <t>spread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,6 +174,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,12 +612,12 @@
       <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -614,7 +625,7 @@
         <v>1758596400</v>
       </c>
     </row>
-    <row r="3" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>2</v>
       </c>
@@ -626,7 +637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -634,7 +645,7 @@
         <v>1758596387</v>
       </c>
     </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H5">
         <f>+H4-H3</f>
         <v>47</v>
@@ -650,108 +661,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BB713-BC81-420C-8622-089717426C5E}">
   <dimension ref="C3:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" ht="15" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E02938-0381-4FA2-88A7-02FFBC155861}">
+  <dimension ref="G4:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G5" s="6">
+        <f ca="1">RAND()</f>
+        <v>7.7637210387239808E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f ca="1">RANDBETWEEN(1840.1,1875.2)</f>
+        <v>1874</v>
+      </c>
+      <c r="I5" s="6">
+        <f ca="1">ROUND(H5+G5,1)</f>
+        <v>1874.1</v>
+      </c>
+      <c r="J5">
+        <f ca="1">ROUND(RAND(),1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="6">
+        <f ca="1">+I5+J5</f>
+        <v>1874.6</v>
+      </c>
+      <c r="L5" s="6">
+        <f ca="1">0.4+K5</f>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G14" ca="1" si="0">RAND()</f>
+        <v>0.35144355390477067</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H14" ca="1" si="1">RANDBETWEEN(1840.1,1875.2)</f>
+        <v>1851</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I14" ca="1" si="2">ROUND(H6+G6,1)</f>
+        <v>1851.4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J14" ca="1" si="3">ROUND(RAND(),1)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K14" ca="1" si="4">+I6+J6</f>
+        <v>1852.3000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17889380828090817</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1850.2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1851.1000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19647833228945433</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1865</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1865.2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1865.3</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60506401135107413</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1859</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1859.6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1859.8</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72142284278915803</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1867</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1867.7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1867.9</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59758263602355</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1873</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1873.6</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1874.3999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27090290334945843</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1841</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1841.3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1841.7</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40801235736538011</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1855</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1855.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1856.2</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32283873943684394</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1865</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1865.3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1865.3999999999999</v>
       </c>
     </row>
   </sheetData>
